--- a/src/assets/dataBase/Makeathon2024DataBase.xlsx
+++ b/src/assets/dataBase/Makeathon2024DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Desktop\MakeathonAngularV1\src\assets\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4103E565-51F3-45B1-90D7-23CCC7ABB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD73285-89C8-4C6A-B8C1-349F74F1F590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46800" yWindow="2115" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Filipinas</t>
+  </si>
+  <si>
+    <t>CheckIn</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="B1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,7 +411,9 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
